--- a/Alumno/Diagrama de Gantt/diagrama_gantt.xlsx
+++ b/Alumno/Diagrama de Gantt/diagrama_gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyecto\Alumno\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyecto\Alumno\Diagrama de Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -351,7 +351,7 @@
                   <c:v>42516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42538</c:v>
+                  <c:v>42522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -411,10 +411,10 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -430,11 +430,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-423334112"/>
-        <c:axId val="-423341184"/>
+        <c:axId val="2137623392"/>
+        <c:axId val="2137617408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-423334112"/>
+        <c:axId val="2137623392"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -476,7 +476,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-423341184"/>
+        <c:crossAx val="2137617408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -484,7 +484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-423341184"/>
+        <c:axId val="2137617408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42543"/>
@@ -544,7 +544,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-423334112"/>
+        <c:crossAx val="2137623392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="15"/>
@@ -1360,13 +1360,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1448,11 +1448,11 @@
         <v>42516</v>
       </c>
       <c r="C5" s="11">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>42537</v>
+        <f>B5+C5</f>
+        <v>42521</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1460,10 +1460,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>42538</v>
+        <v>42522</v>
       </c>
       <c r="C6" s="12">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>

--- a/Alumno/Diagrama de Gantt/diagrama_gantt.xlsx
+++ b/Alumno/Diagrama de Gantt/diagrama_gantt.xlsx
@@ -175,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -206,6 +206,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,7 +415,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -430,11 +431,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2137623392"/>
-        <c:axId val="2137617408"/>
+        <c:axId val="-700635760"/>
+        <c:axId val="-700627056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137623392"/>
+        <c:axId val="-700635760"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -476,7 +477,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137617408"/>
+        <c:crossAx val="-700627056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -484,10 +485,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137617408"/>
+        <c:axId val="-700627056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="42543"/>
+          <c:max val="42538"/>
           <c:min val="42468"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -544,10 +545,10 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137623392"/>
+        <c:crossAx val="-700635760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="15"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1040,16 +1041,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>471486</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1358,19 +1359,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -1398,7 +1400,7 @@
         <v>42475</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1419,7 +1421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1437,10 +1439,10 @@
         <v>42468</v>
       </c>
       <c r="I4" s="17">
-        <v>42543</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1455,7 +1457,7 @@
         <v>42521</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
@@ -1463,11 +1465,20 @@
         <v>42522</v>
       </c>
       <c r="C6" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>42543</v>
+        <f>B6+C6</f>
+        <v>42538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K7" s="18">
+        <v>42538</v>
+      </c>
+      <c r="L7" t="e">
+        <f>DATEVALUE(D6)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
